--- a/src/test/resources/SignUpData.xlsx
+++ b/src/test/resources/SignUpData.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -34,6 +33,36 @@
     <t>TestFirst3</t>
   </si>
   <si>
+    <t>TestLast2</t>
+  </si>
+  <si>
+    <t>TestLast3</t>
+  </si>
+  <si>
+    <t>pass124</t>
+  </si>
+  <si>
+    <t>pass125</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Mobile_No</t>
+  </si>
+  <si>
+    <t>Mail_Id</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Re_Password</t>
+  </si>
+  <si>
     <t>TestFirst4</t>
   </si>
   <si>
@@ -52,12 +81,6 @@
     <t>TestFirst9</t>
   </si>
   <si>
-    <t>TestLast2</t>
-  </si>
-  <si>
-    <t>TestLast3</t>
-  </si>
-  <si>
     <t>TestLast4</t>
   </si>
   <si>
@@ -76,12 +99,6 @@
     <t>TestLast9</t>
   </si>
   <si>
-    <t>pass124</t>
-  </si>
-  <si>
-    <t>pass125</t>
-  </si>
-  <si>
     <t>pass126</t>
   </si>
   <si>
@@ -100,49 +117,31 @@
     <t>pass131</t>
   </si>
   <si>
-    <t>testme1@gmail.com</t>
-  </si>
-  <si>
-    <t>testme2@gmail.com</t>
-  </si>
-  <si>
-    <t>testme3@gmail.com</t>
-  </si>
-  <si>
-    <t>testme4@gmail.com</t>
-  </si>
-  <si>
-    <t>testme9@gmail.com</t>
-  </si>
-  <si>
-    <t>testme8@gmail.com</t>
-  </si>
-  <si>
-    <t>testme7@gmail.com</t>
-  </si>
-  <si>
-    <t>testme6@gmail.com</t>
-  </si>
-  <si>
-    <t>testme5@gmail.com</t>
-  </si>
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
-  <si>
-    <t>Mobile_No</t>
-  </si>
-  <si>
-    <t>Mail_Id</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Re_Password</t>
+    <t>TATestme1@gmail.com</t>
+  </si>
+  <si>
+    <t>TATestme2@gmail.com</t>
+  </si>
+  <si>
+    <t>TATestme3@gmail.com</t>
+  </si>
+  <si>
+    <t>TATestme4@gmail.com</t>
+  </si>
+  <si>
+    <t>TATestme5@gmail.com</t>
+  </si>
+  <si>
+    <t>TATestme6@gmail.com</t>
+  </si>
+  <si>
+    <t>TATestme7@gmail.com</t>
+  </si>
+  <si>
+    <t>TATestme8@gmail.com</t>
+  </si>
+  <si>
+    <t>TATestme9@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -490,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,28 +498,28 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -534,7 +533,7 @@
         <v>1678945625</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -548,19 +547,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>1678945626</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -568,152 +567,152 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>1678945627</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2">
         <v>1678945628</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2">
         <v>1678945629</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>1678945630</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>1678945631</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>1678945632</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
-        <v>1678945625</v>
+        <v>1678945633</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="D5" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D10" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D3" r:id="rId1" display="testme2@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId2" display="testme1@gmail.com"/>
+    <hyperlink ref="D4" r:id="rId3" display="testme3@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
     <hyperlink ref="D8" r:id="rId8"/>
-    <hyperlink ref="D7" r:id="rId9"/>
+    <hyperlink ref="D10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/src/test/resources/SignUpData.xlsx
+++ b/src/test/resources/SignUpData.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -33,18 +34,99 @@
     <t>TestFirst3</t>
   </si>
   <si>
+    <t>TestFirst4</t>
+  </si>
+  <si>
+    <t>TestFirst5</t>
+  </si>
+  <si>
+    <t>TestFirst6</t>
+  </si>
+  <si>
+    <t>TestFirst7</t>
+  </si>
+  <si>
+    <t>TestFirst8</t>
+  </si>
+  <si>
+    <t>TestFirst9</t>
+  </si>
+  <si>
     <t>TestLast2</t>
   </si>
   <si>
     <t>TestLast3</t>
   </si>
   <si>
+    <t>TestLast4</t>
+  </si>
+  <si>
+    <t>TestLast5</t>
+  </si>
+  <si>
+    <t>TestLast6</t>
+  </si>
+  <si>
+    <t>TestLast7</t>
+  </si>
+  <si>
+    <t>TestLast8</t>
+  </si>
+  <si>
+    <t>TestLast9</t>
+  </si>
+  <si>
     <t>pass124</t>
   </si>
   <si>
     <t>pass125</t>
   </si>
   <si>
+    <t>pass126</t>
+  </si>
+  <si>
+    <t>pass127</t>
+  </si>
+  <si>
+    <t>pass128</t>
+  </si>
+  <si>
+    <t>pass129</t>
+  </si>
+  <si>
+    <t>pass130</t>
+  </si>
+  <si>
+    <t>pass131</t>
+  </si>
+  <si>
+    <t>testme1@gmail.com</t>
+  </si>
+  <si>
+    <t>testme2@gmail.com</t>
+  </si>
+  <si>
+    <t>testme3@gmail.com</t>
+  </si>
+  <si>
+    <t>testme4@gmail.com</t>
+  </si>
+  <si>
+    <t>testme9@gmail.com</t>
+  </si>
+  <si>
+    <t>testme8@gmail.com</t>
+  </si>
+  <si>
+    <t>testme7@gmail.com</t>
+  </si>
+  <si>
+    <t>testme6@gmail.com</t>
+  </si>
+  <si>
+    <t>testme5@gmail.com</t>
+  </si>
+  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -61,87 +143,6 @@
   </si>
   <si>
     <t>Re_Password</t>
-  </si>
-  <si>
-    <t>TestFirst4</t>
-  </si>
-  <si>
-    <t>TestFirst5</t>
-  </si>
-  <si>
-    <t>TestFirst6</t>
-  </si>
-  <si>
-    <t>TestFirst7</t>
-  </si>
-  <si>
-    <t>TestFirst8</t>
-  </si>
-  <si>
-    <t>TestFirst9</t>
-  </si>
-  <si>
-    <t>TestLast4</t>
-  </si>
-  <si>
-    <t>TestLast5</t>
-  </si>
-  <si>
-    <t>TestLast6</t>
-  </si>
-  <si>
-    <t>TestLast7</t>
-  </si>
-  <si>
-    <t>TestLast8</t>
-  </si>
-  <si>
-    <t>TestLast9</t>
-  </si>
-  <si>
-    <t>pass126</t>
-  </si>
-  <si>
-    <t>pass127</t>
-  </si>
-  <si>
-    <t>pass128</t>
-  </si>
-  <si>
-    <t>pass129</t>
-  </si>
-  <si>
-    <t>pass130</t>
-  </si>
-  <si>
-    <t>pass131</t>
-  </si>
-  <si>
-    <t>TATestme1@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme2@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme3@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme4@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme5@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme6@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme7@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme8@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme9@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -489,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -498,28 +499,28 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -533,7 +534,7 @@
         <v>1678945625</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -547,19 +548,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>1678945626</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -567,152 +568,152 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>1678945627</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>1678945628</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2">
         <v>1678945629</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>1678945630</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>1678945631</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>1678945632</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1678945625</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2">
-        <v>1678945633</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="testme2@gmail.com"/>
-    <hyperlink ref="D2" r:id="rId2" display="testme1@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId3" display="testme3@gmail.com"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
     <hyperlink ref="D8" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D7" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/src/test/resources/SignUpData.xlsx
+++ b/src/test/resources/SignUpData.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>TestLast1</t>
   </si>
@@ -40,18 +39,6 @@
     <t>TestFirst5</t>
   </si>
   <si>
-    <t>TestFirst6</t>
-  </si>
-  <si>
-    <t>TestFirst7</t>
-  </si>
-  <si>
-    <t>TestFirst8</t>
-  </si>
-  <si>
-    <t>TestFirst9</t>
-  </si>
-  <si>
     <t>TestLast2</t>
   </si>
   <si>
@@ -64,18 +51,6 @@
     <t>TestLast5</t>
   </si>
   <si>
-    <t>TestLast6</t>
-  </si>
-  <si>
-    <t>TestLast7</t>
-  </si>
-  <si>
-    <t>TestLast8</t>
-  </si>
-  <si>
-    <t>TestLast9</t>
-  </si>
-  <si>
     <t>pass124</t>
   </si>
   <si>
@@ -88,18 +63,6 @@
     <t>pass127</t>
   </si>
   <si>
-    <t>pass128</t>
-  </si>
-  <si>
-    <t>pass129</t>
-  </si>
-  <si>
-    <t>pass130</t>
-  </si>
-  <si>
-    <t>pass131</t>
-  </si>
-  <si>
     <t>testme1@gmail.com</t>
   </si>
   <si>
@@ -110,18 +73,6 @@
   </si>
   <si>
     <t>testme4@gmail.com</t>
-  </si>
-  <si>
-    <t>testme9@gmail.com</t>
-  </si>
-  <si>
-    <t>testme8@gmail.com</t>
-  </si>
-  <si>
-    <t>testme7@gmail.com</t>
-  </si>
-  <si>
-    <t>testme6@gmail.com</t>
   </si>
   <si>
     <t>testme5@gmail.com</t>
@@ -490,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -505,22 +456,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -534,7 +485,7 @@
         <v>1678945625</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -548,19 +499,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>1678945626</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -568,19 +519,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>1678945627</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -588,19 +539,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>1678945628</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -608,100 +559,32 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>1678945629</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1678945630</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1678945631</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1678945632</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1678945625</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -710,13 +593,9 @@
     <hyperlink ref="D5" r:id="rId3"/>
     <hyperlink ref="D4" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D10" r:id="rId6"/>
-    <hyperlink ref="D9" r:id="rId7"/>
-    <hyperlink ref="D8" r:id="rId8"/>
-    <hyperlink ref="D7" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/SignUpData.xlsx
+++ b/src/test/resources/SignUpData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16095" windowHeight="3030"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16755" windowHeight="2145"/>
   </bookViews>
   <sheets>
     <sheet name="SignUpData" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>TestLast1</t>
   </si>
@@ -33,18 +34,51 @@
     <t>TestFirst3</t>
   </si>
   <si>
+    <t>TestFirst4</t>
+  </si>
+  <si>
+    <t>TestFirst5</t>
+  </si>
+  <si>
     <t>TestLast2</t>
   </si>
   <si>
     <t>TestLast3</t>
   </si>
   <si>
+    <t>TestLast4</t>
+  </si>
+  <si>
+    <t>TestLast5</t>
+  </si>
+  <si>
     <t>pass124</t>
   </si>
   <si>
     <t>pass125</t>
   </si>
   <si>
+    <t>pass126</t>
+  </si>
+  <si>
+    <t>pass127</t>
+  </si>
+  <si>
+    <t>testme1@gmail.com</t>
+  </si>
+  <si>
+    <t>testme2@gmail.com</t>
+  </si>
+  <si>
+    <t>testme3@gmail.com</t>
+  </si>
+  <si>
+    <t>testme4@gmail.com</t>
+  </si>
+  <si>
+    <t>testme5@gmail.com</t>
+  </si>
+  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -61,87 +95,6 @@
   </si>
   <si>
     <t>Re_Password</t>
-  </si>
-  <si>
-    <t>TestFirst4</t>
-  </si>
-  <si>
-    <t>TestFirst5</t>
-  </si>
-  <si>
-    <t>TestFirst6</t>
-  </si>
-  <si>
-    <t>TestFirst7</t>
-  </si>
-  <si>
-    <t>TestFirst8</t>
-  </si>
-  <si>
-    <t>TestFirst9</t>
-  </si>
-  <si>
-    <t>TestLast4</t>
-  </si>
-  <si>
-    <t>TestLast5</t>
-  </si>
-  <si>
-    <t>TestLast6</t>
-  </si>
-  <si>
-    <t>TestLast7</t>
-  </si>
-  <si>
-    <t>TestLast8</t>
-  </si>
-  <si>
-    <t>TestLast9</t>
-  </si>
-  <si>
-    <t>pass126</t>
-  </si>
-  <si>
-    <t>pass127</t>
-  </si>
-  <si>
-    <t>pass128</t>
-  </si>
-  <si>
-    <t>pass129</t>
-  </si>
-  <si>
-    <t>pass130</t>
-  </si>
-  <si>
-    <t>pass131</t>
-  </si>
-  <si>
-    <t>TATestme1@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme2@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme3@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme4@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme5@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme6@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme7@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme8@gmail.com</t>
-  </si>
-  <si>
-    <t>TATestme9@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -489,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -498,28 +451,28 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -533,7 +486,7 @@
         <v>1678945625</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -547,19 +500,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>1678945626</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -567,155 +520,83 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>1678945627</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>1678945628</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>1678945629</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1678945630</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1678945631</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1678945632</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1678945633</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="testme2@gmail.com"/>
-    <hyperlink ref="D2" r:id="rId2" display="testme1@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId3" display="testme3@gmail.com"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D7" r:id="rId5"/>
-    <hyperlink ref="D9" r:id="rId6"/>
-    <hyperlink ref="D6" r:id="rId7"/>
-    <hyperlink ref="D8" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/SignUpData.xlsx
+++ b/src/test/resources/SignUpData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16755" windowHeight="2145"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15420" windowHeight="5025"/>
   </bookViews>
   <sheets>
     <sheet name="SignUpData" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>TestLast1</t>
   </si>
@@ -95,6 +95,57 @@
   </si>
   <si>
     <t>Re_Password</t>
+  </si>
+  <si>
+    <t>TestFirst6</t>
+  </si>
+  <si>
+    <t>TestFirst7</t>
+  </si>
+  <si>
+    <t>TestFirst8</t>
+  </si>
+  <si>
+    <t>TestLast6</t>
+  </si>
+  <si>
+    <t>TestLast7</t>
+  </si>
+  <si>
+    <t>TestLast8</t>
+  </si>
+  <si>
+    <t>testme6@gmail.com</t>
+  </si>
+  <si>
+    <t>testme7@gmail.com</t>
+  </si>
+  <si>
+    <t>testme8@gmail.com</t>
+  </si>
+  <si>
+    <t>pass128</t>
+  </si>
+  <si>
+    <t>pass129</t>
+  </si>
+  <si>
+    <t>pass130</t>
+  </si>
+  <si>
+    <t>pass131</t>
+  </si>
+  <si>
+    <t>testme9@gmail.com</t>
+  </si>
+  <si>
+    <t>1678945633</t>
+  </si>
+  <si>
+    <t>TestFirst9</t>
+  </si>
+  <si>
+    <t>TestLast9</t>
   </si>
 </sst>
 </file>
@@ -442,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -576,16 +627,84 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="D7" s="1"/>
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1678945630</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="1"/>
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1678945631</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="D9" s="1"/>
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1678945632</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="D10" s="1"/>
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -594,9 +713,13 @@
     <hyperlink ref="D5" r:id="rId3"/>
     <hyperlink ref="D4" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
